--- a/산출물/메인프로젝트_1팀_WBS_v1.1.xlsx
+++ b/산출물/메인프로젝트_1팀_WBS_v1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3CLASS0_007\Desktop\project\GlobalMainProject\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2922D512-7E82-459C-B123-947213DC6867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC5A5E5-B7EE-4484-AD44-28ACD3ED4851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2911056D-CEA2-4BD9-AA47-60248FB27749}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="84">
   <si>
     <t>단계</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -366,6 +366,17 @@
   <si>
     <t>인사/급여 메뉴 구현 
 (급여관리, 인사관리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 사이트 구현
+(로그인,회원가입, 아이디 및 비밀번호 찾기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERP 메인 사이트 구현
+(매출 현황, 비용 현황, 재고 현황, 
+생산 현황, 인사/급여 현황, 알림 영역)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -787,6 +798,18 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -796,6 +819,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -805,27 +840,6 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -837,9 +851,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1155,17 +1166,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE02C2D2-1E5C-4A08-8A7B-F42FA2D4C018}">
-  <dimension ref="A1:BH32"/>
+  <dimension ref="A1:BH34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="41.125" style="19" customWidth="1"/>
     <col min="2" max="2" width="22.5" style="19" customWidth="1"/>
-    <col min="3" max="3" width="42.875" style="19" customWidth="1"/>
+    <col min="3" max="3" width="42.75" style="19" customWidth="1"/>
     <col min="4" max="4" width="14" style="19" customWidth="1"/>
     <col min="5" max="5" width="33.25" style="19" customWidth="1"/>
     <col min="6" max="6" width="5.75" style="19" bestFit="1" customWidth="1"/>
@@ -1621,182 +1632,182 @@
       <c r="BH7" s="22"/>
     </row>
     <row r="8" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="51"/>
-      <c r="I8" s="40" t="s">
+      <c r="H8" s="52"/>
+      <c r="I8" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
       <c r="O8" s="10"/>
-      <c r="P8" s="40" t="s">
+      <c r="P8" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="41"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="40" t="s">
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="50"/>
+      <c r="W8" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="X8" s="41"/>
-      <c r="Y8" s="41"/>
-      <c r="Z8" s="41"/>
-      <c r="AA8" s="41"/>
-      <c r="AB8" s="41"/>
-      <c r="AC8" s="42"/>
-      <c r="AD8" s="40" t="s">
+      <c r="X8" s="49"/>
+      <c r="Y8" s="49"/>
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="49"/>
+      <c r="AB8" s="49"/>
+      <c r="AC8" s="50"/>
+      <c r="AD8" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="AE8" s="41"/>
-      <c r="AF8" s="41"/>
-      <c r="AG8" s="41"/>
-      <c r="AH8" s="41"/>
-      <c r="AI8" s="41"/>
-      <c r="AJ8" s="42"/>
-      <c r="AK8" s="40" t="s">
+      <c r="AE8" s="49"/>
+      <c r="AF8" s="49"/>
+      <c r="AG8" s="49"/>
+      <c r="AH8" s="49"/>
+      <c r="AI8" s="49"/>
+      <c r="AJ8" s="50"/>
+      <c r="AK8" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="AL8" s="41"/>
-      <c r="AM8" s="41"/>
-      <c r="AN8" s="41"/>
-      <c r="AO8" s="41"/>
-      <c r="AP8" s="41"/>
-      <c r="AQ8" s="42"/>
-      <c r="AR8" s="40" t="s">
+      <c r="AL8" s="49"/>
+      <c r="AM8" s="49"/>
+      <c r="AN8" s="49"/>
+      <c r="AO8" s="49"/>
+      <c r="AP8" s="49"/>
+      <c r="AQ8" s="50"/>
+      <c r="AR8" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="AS8" s="41"/>
-      <c r="AT8" s="41"/>
-      <c r="AU8" s="41"/>
-      <c r="AV8" s="41"/>
-      <c r="AW8" s="41"/>
-      <c r="AX8" s="42"/>
-      <c r="AY8" s="40" t="s">
+      <c r="AS8" s="49"/>
+      <c r="AT8" s="49"/>
+      <c r="AU8" s="49"/>
+      <c r="AV8" s="49"/>
+      <c r="AW8" s="49"/>
+      <c r="AX8" s="50"/>
+      <c r="AY8" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="AZ8" s="41"/>
-      <c r="BA8" s="41"/>
-      <c r="BB8" s="41"/>
-      <c r="BC8" s="41"/>
-      <c r="BD8" s="41"/>
-      <c r="BE8" s="42"/>
-      <c r="BF8" s="40" t="s">
+      <c r="AZ8" s="49"/>
+      <c r="BA8" s="49"/>
+      <c r="BB8" s="49"/>
+      <c r="BC8" s="49"/>
+      <c r="BD8" s="49"/>
+      <c r="BE8" s="50"/>
+      <c r="BF8" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="BG8" s="41"/>
-      <c r="BH8" s="41"/>
+      <c r="BG8" s="49"/>
+      <c r="BH8" s="49"/>
     </row>
     <row r="9" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A9" s="47"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="43">
+      <c r="A9" s="45"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="38">
         <v>45901</v>
       </c>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
       <c r="O9" s="11"/>
-      <c r="P9" s="43">
+      <c r="P9" s="38">
         <v>45908</v>
       </c>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="44"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="43">
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="38">
         <v>45915</v>
       </c>
-      <c r="X9" s="44"/>
-      <c r="Y9" s="44"/>
-      <c r="Z9" s="44"/>
-      <c r="AA9" s="44"/>
-      <c r="AB9" s="44"/>
-      <c r="AC9" s="45"/>
-      <c r="AD9" s="43">
+      <c r="X9" s="39"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="39"/>
+      <c r="AA9" s="39"/>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="38">
         <v>45922</v>
       </c>
-      <c r="AE9" s="44"/>
-      <c r="AF9" s="44"/>
-      <c r="AG9" s="44"/>
-      <c r="AH9" s="44"/>
-      <c r="AI9" s="44"/>
-      <c r="AJ9" s="45"/>
-      <c r="AK9" s="43">
+      <c r="AE9" s="39"/>
+      <c r="AF9" s="39"/>
+      <c r="AG9" s="39"/>
+      <c r="AH9" s="39"/>
+      <c r="AI9" s="39"/>
+      <c r="AJ9" s="40"/>
+      <c r="AK9" s="38">
         <v>45929</v>
       </c>
-      <c r="AL9" s="44"/>
-      <c r="AM9" s="44"/>
-      <c r="AN9" s="44"/>
-      <c r="AO9" s="44"/>
-      <c r="AP9" s="44"/>
-      <c r="AQ9" s="45"/>
-      <c r="AR9" s="43">
+      <c r="AL9" s="39"/>
+      <c r="AM9" s="39"/>
+      <c r="AN9" s="39"/>
+      <c r="AO9" s="39"/>
+      <c r="AP9" s="39"/>
+      <c r="AQ9" s="40"/>
+      <c r="AR9" s="38">
         <v>45936</v>
       </c>
-      <c r="AS9" s="44"/>
-      <c r="AT9" s="44"/>
-      <c r="AU9" s="44"/>
-      <c r="AV9" s="44"/>
-      <c r="AW9" s="44"/>
-      <c r="AX9" s="45"/>
-      <c r="AY9" s="43">
+      <c r="AS9" s="39"/>
+      <c r="AT9" s="39"/>
+      <c r="AU9" s="39"/>
+      <c r="AV9" s="39"/>
+      <c r="AW9" s="39"/>
+      <c r="AX9" s="40"/>
+      <c r="AY9" s="38">
         <v>45943</v>
       </c>
-      <c r="AZ9" s="44"/>
-      <c r="BA9" s="44"/>
-      <c r="BB9" s="44"/>
-      <c r="BC9" s="44"/>
-      <c r="BD9" s="44"/>
-      <c r="BE9" s="45"/>
-      <c r="BF9" s="43">
+      <c r="AZ9" s="39"/>
+      <c r="BA9" s="39"/>
+      <c r="BB9" s="39"/>
+      <c r="BC9" s="39"/>
+      <c r="BD9" s="39"/>
+      <c r="BE9" s="40"/>
+      <c r="BF9" s="38">
         <v>45950</v>
       </c>
-      <c r="BG9" s="44"/>
-      <c r="BH9" s="44"/>
+      <c r="BG9" s="39"/>
+      <c r="BH9" s="39"/>
     </row>
     <row r="10" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A10" s="48"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
       <c r="G10" s="9" t="s">
         <v>11</v>
       </c>
@@ -1961,7 +1972,7 @@
       </c>
     </row>
     <row r="11" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="41" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2039,7 +2050,7 @@
       <c r="BH11" s="14"/>
     </row>
     <row r="12" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A12" s="39"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="18" t="s">
         <v>17</v>
       </c>
@@ -2115,10 +2126,10 @@
       <c r="BH12" s="14"/>
     </row>
     <row r="13" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="41" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -2193,8 +2204,8 @@
       <c r="BH13" s="14"/>
     </row>
     <row r="14" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A14" s="38"/>
-      <c r="B14" s="39"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="43"/>
       <c r="C14" s="1" t="s">
         <v>38</v>
       </c>
@@ -2267,8 +2278,8 @@
       <c r="BH14" s="14"/>
     </row>
     <row r="15" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A15" s="38"/>
-      <c r="B15" s="37" t="s">
+      <c r="A15" s="42"/>
+      <c r="B15" s="41" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="19" t="s">
@@ -2343,8 +2354,8 @@
       <c r="BH15" s="14"/>
     </row>
     <row r="16" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="1" t="s">
         <v>43</v>
       </c>
@@ -2417,8 +2428,8 @@
       <c r="BH16" s="14"/>
     </row>
     <row r="17" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A17" s="38"/>
-      <c r="B17" s="39"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="1" t="s">
         <v>44</v>
       </c>
@@ -2491,7 +2502,7 @@
       <c r="BH17" s="14"/>
     </row>
     <row r="18" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A18" s="38"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="1" t="s">
         <v>32</v>
       </c>
@@ -2567,7 +2578,7 @@
       <c r="BH18" s="14"/>
     </row>
     <row r="19" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A19" s="39"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="1" t="s">
         <v>27</v>
       </c>
@@ -2643,7 +2654,7 @@
       <c r="BH19" s="14"/>
     </row>
     <row r="20" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="42" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2721,12 +2732,12 @@
       <c r="BH20" s="14"/>
     </row>
     <row r="21" spans="1:60" ht="33" x14ac:dyDescent="0.3">
-      <c r="A21" s="38"/>
-      <c r="B21" s="37" t="s">
+      <c r="A21" s="42"/>
+      <c r="B21" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="54" t="s">
-        <v>76</v>
+      <c r="C21" s="37" t="s">
+        <v>82</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>28</v>
@@ -2741,7 +2752,7 @@
         <v>45908</v>
       </c>
       <c r="H21" s="15">
-        <v>45911</v>
+        <v>45909</v>
       </c>
       <c r="I21" s="14"/>
       <c r="J21" s="16"/>
@@ -2752,8 +2763,8 @@
       <c r="O21" s="17"/>
       <c r="P21" s="25"/>
       <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
       <c r="T21" s="16"/>
       <c r="U21" s="17"/>
       <c r="V21" s="17"/>
@@ -2796,11 +2807,11 @@
       <c r="BG21" s="14"/>
       <c r="BH21" s="14"/>
     </row>
-    <row r="22" spans="1:60" ht="33" x14ac:dyDescent="0.3">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="54" t="s">
-        <v>77</v>
+    <row r="22" spans="1:60" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="42"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="37" t="s">
+        <v>83</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>28</v>
@@ -2812,10 +2823,10 @@
         <v>1</v>
       </c>
       <c r="G22" s="15">
-        <v>45911</v>
+        <v>45909</v>
       </c>
       <c r="H22" s="15">
-        <v>45916</v>
+        <v>45910</v>
       </c>
       <c r="I22" s="14"/>
       <c r="J22" s="16"/>
@@ -2825,14 +2836,14 @@
       <c r="N22" s="17"/>
       <c r="O22" s="17"/>
       <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
       <c r="U22" s="17"/>
       <c r="V22" s="17"/>
-      <c r="W22" s="25"/>
-      <c r="X22" s="25"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
       <c r="Y22" s="14"/>
       <c r="Z22" s="14"/>
       <c r="AA22" s="14"/>
@@ -2871,10 +2882,10 @@
       <c r="BH22" s="14"/>
     </row>
     <row r="23" spans="1:60" ht="33" x14ac:dyDescent="0.3">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="54" t="s">
-        <v>78</v>
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="37" t="s">
+        <v>76</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>28</v>
@@ -2886,10 +2897,10 @@
         <v>1</v>
       </c>
       <c r="G23" s="15">
-        <v>45916</v>
+        <v>45910</v>
       </c>
       <c r="H23" s="15">
-        <v>45919</v>
+        <v>45912</v>
       </c>
       <c r="I23" s="14"/>
       <c r="J23" s="16"/>
@@ -2900,16 +2911,16 @@
       <c r="O23" s="17"/>
       <c r="P23" s="16"/>
       <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
       <c r="U23" s="17"/>
       <c r="V23" s="17"/>
       <c r="W23" s="14"/>
-      <c r="X23" s="25"/>
-      <c r="Y23" s="25"/>
-      <c r="Z23" s="25"/>
-      <c r="AA23" s="25"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
       <c r="AB23" s="17"/>
       <c r="AC23" s="17"/>
       <c r="AD23" s="14"/>
@@ -2945,10 +2956,10 @@
       <c r="BH23" s="14"/>
     </row>
     <row r="24" spans="1:60" ht="33" x14ac:dyDescent="0.3">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="54" t="s">
-        <v>79</v>
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="37" t="s">
+        <v>77</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>28</v>
@@ -2960,10 +2971,10 @@
         <v>1</v>
       </c>
       <c r="G24" s="15">
-        <v>45919</v>
+        <v>45912</v>
       </c>
       <c r="H24" s="15">
-        <v>45922</v>
+        <v>45916</v>
       </c>
       <c r="I24" s="14"/>
       <c r="J24" s="16"/>
@@ -2976,17 +2987,17 @@
       <c r="Q24" s="16"/>
       <c r="R24" s="16"/>
       <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
+      <c r="T24" s="25"/>
       <c r="U24" s="17"/>
       <c r="V24" s="17"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
       <c r="Y24" s="14"/>
       <c r="Z24" s="14"/>
-      <c r="AA24" s="25"/>
+      <c r="AA24" s="14"/>
       <c r="AB24" s="17"/>
       <c r="AC24" s="17"/>
-      <c r="AD24" s="25"/>
+      <c r="AD24" s="14"/>
       <c r="AE24" s="14"/>
       <c r="AF24" s="14"/>
       <c r="AG24" s="14"/>
@@ -3019,10 +3030,10 @@
       <c r="BH24" s="14"/>
     </row>
     <row r="25" spans="1:60" ht="33" x14ac:dyDescent="0.3">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="54" t="s">
-        <v>80</v>
+      <c r="A25" s="42"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="37" t="s">
+        <v>78</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>28</v>
@@ -3034,10 +3045,10 @@
         <v>1</v>
       </c>
       <c r="G25" s="15">
-        <v>45922</v>
+        <v>45916</v>
       </c>
       <c r="H25" s="15">
-        <v>45924</v>
+        <v>45919</v>
       </c>
       <c r="I25" s="14"/>
       <c r="J25" s="16"/>
@@ -3054,15 +3065,15 @@
       <c r="U25" s="17"/>
       <c r="V25" s="17"/>
       <c r="W25" s="14"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="14"/>
-      <c r="Z25" s="14"/>
-      <c r="AA25" s="14"/>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="25"/>
+      <c r="AA25" s="25"/>
       <c r="AB25" s="17"/>
       <c r="AC25" s="17"/>
-      <c r="AD25" s="25"/>
-      <c r="AE25" s="25"/>
-      <c r="AF25" s="25"/>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="14"/>
+      <c r="AF25" s="14"/>
       <c r="AG25" s="14"/>
       <c r="AH25" s="14"/>
       <c r="AI25" s="17"/>
@@ -3093,10 +3104,10 @@
       <c r="BH25" s="14"/>
     </row>
     <row r="26" spans="1:60" ht="33" x14ac:dyDescent="0.3">
-      <c r="A26" s="38"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="54" t="s">
-        <v>81</v>
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="37" t="s">
+        <v>79</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>28</v>
@@ -3108,10 +3119,10 @@
         <v>1</v>
       </c>
       <c r="G26" s="15">
-        <v>45924</v>
+        <v>45919</v>
       </c>
       <c r="H26" s="15">
-        <v>45926</v>
+        <v>45922</v>
       </c>
       <c r="I26" s="14"/>
       <c r="J26" s="16"/>
@@ -3127,18 +3138,18 @@
       <c r="T26" s="16"/>
       <c r="U26" s="17"/>
       <c r="V26" s="17"/>
-      <c r="W26" s="16"/>
-      <c r="X26" s="16"/>
-      <c r="Y26" s="16"/>
-      <c r="Z26" s="16"/>
-      <c r="AA26" s="16"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="25"/>
       <c r="AB26" s="17"/>
       <c r="AC26" s="17"/>
-      <c r="AD26" s="16"/>
-      <c r="AE26" s="16"/>
-      <c r="AF26" s="25"/>
-      <c r="AG26" s="25"/>
-      <c r="AH26" s="25"/>
+      <c r="AD26" s="25"/>
+      <c r="AE26" s="14"/>
+      <c r="AF26" s="14"/>
+      <c r="AG26" s="14"/>
+      <c r="AH26" s="14"/>
       <c r="AI26" s="17"/>
       <c r="AJ26" s="17"/>
       <c r="AK26" s="14"/>
@@ -3166,28 +3177,26 @@
       <c r="BG26" s="14"/>
       <c r="BH26" s="14"/>
     </row>
-    <row r="27" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A27" s="38"/>
-      <c r="B27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>51</v>
+    <row r="27" spans="1:60" ht="33" x14ac:dyDescent="0.3">
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="37" t="s">
+        <v>80</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="29">
+        <v>28</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" s="1">
         <v>1</v>
       </c>
       <c r="G27" s="15">
         <v>45922</v>
       </c>
       <c r="H27" s="15">
-        <v>45926</v>
+        <v>45924</v>
       </c>
       <c r="I27" s="14"/>
       <c r="J27" s="16"/>
@@ -3196,11 +3205,11 @@
       <c r="M27" s="16"/>
       <c r="N27" s="17"/>
       <c r="O27" s="17"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
       <c r="U27" s="17"/>
       <c r="V27" s="17"/>
       <c r="W27" s="14"/>
@@ -3213,8 +3222,8 @@
       <c r="AD27" s="25"/>
       <c r="AE27" s="25"/>
       <c r="AF27" s="25"/>
-      <c r="AG27" s="25"/>
-      <c r="AH27" s="25"/>
+      <c r="AG27" s="14"/>
+      <c r="AH27" s="14"/>
       <c r="AI27" s="17"/>
       <c r="AJ27" s="17"/>
       <c r="AK27" s="14"/>
@@ -3242,28 +3251,26 @@
       <c r="BG27" s="14"/>
       <c r="BH27" s="14"/>
     </row>
-    <row r="28" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A28" s="39"/>
-      <c r="B28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>52</v>
+    <row r="28" spans="1:60" ht="33" x14ac:dyDescent="0.3">
+      <c r="A28" s="42"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="37" t="s">
+        <v>81</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="F28" s="1">
         <v>1</v>
       </c>
       <c r="G28" s="15">
-        <v>45925</v>
+        <v>45924</v>
       </c>
       <c r="H28" s="15">
-        <v>45930</v>
+        <v>45926</v>
       </c>
       <c r="I28" s="14"/>
       <c r="J28" s="16"/>
@@ -3272,31 +3279,31 @@
       <c r="M28" s="16"/>
       <c r="N28" s="17"/>
       <c r="O28" s="17"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
       <c r="U28" s="17"/>
       <c r="V28" s="17"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
-      <c r="Y28" s="14"/>
-      <c r="Z28" s="14"/>
-      <c r="AA28" s="14"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="16"/>
+      <c r="Y28" s="16"/>
+      <c r="Z28" s="16"/>
+      <c r="AA28" s="16"/>
       <c r="AB28" s="17"/>
       <c r="AC28" s="17"/>
-      <c r="AD28" s="14"/>
-      <c r="AE28" s="14"/>
-      <c r="AF28" s="14"/>
+      <c r="AD28" s="16"/>
+      <c r="AE28" s="16"/>
+      <c r="AF28" s="25"/>
       <c r="AG28" s="25"/>
       <c r="AH28" s="25"/>
       <c r="AI28" s="17"/>
       <c r="AJ28" s="17"/>
-      <c r="AK28" s="25"/>
-      <c r="AL28" s="25"/>
-      <c r="AM28" s="16"/>
-      <c r="AN28" s="16"/>
+      <c r="AK28" s="14"/>
+      <c r="AL28" s="14"/>
+      <c r="AM28" s="14"/>
+      <c r="AN28" s="14"/>
       <c r="AO28" s="17"/>
       <c r="AP28" s="17"/>
       <c r="AQ28" s="17"/>
@@ -3319,29 +3326,27 @@
       <c r="BH28" s="14"/>
     </row>
     <row r="29" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A29" s="37" t="s">
-        <v>24</v>
-      </c>
+      <c r="A29" s="42"/>
       <c r="B29" s="1" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F29" s="1">
+        <v>30</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" s="29">
         <v>1</v>
       </c>
       <c r="G29" s="15">
-        <v>45930</v>
+        <v>45922</v>
       </c>
       <c r="H29" s="15">
-        <v>45931</v>
+        <v>45926</v>
       </c>
       <c r="I29" s="14"/>
       <c r="J29" s="16"/>
@@ -3364,16 +3369,16 @@
       <c r="AA29" s="14"/>
       <c r="AB29" s="17"/>
       <c r="AC29" s="17"/>
-      <c r="AD29" s="14"/>
-      <c r="AE29" s="14"/>
-      <c r="AF29" s="14"/>
-      <c r="AG29" s="14"/>
-      <c r="AH29" s="14"/>
+      <c r="AD29" s="25"/>
+      <c r="AE29" s="25"/>
+      <c r="AF29" s="25"/>
+      <c r="AG29" s="25"/>
+      <c r="AH29" s="25"/>
       <c r="AI29" s="17"/>
       <c r="AJ29" s="17"/>
       <c r="AK29" s="14"/>
-      <c r="AL29" s="25"/>
-      <c r="AM29" s="25"/>
+      <c r="AL29" s="14"/>
+      <c r="AM29" s="14"/>
       <c r="AN29" s="14"/>
       <c r="AO29" s="17"/>
       <c r="AP29" s="17"/>
@@ -3397,27 +3402,27 @@
       <c r="BH29" s="14"/>
     </row>
     <row r="30" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A30" s="39"/>
+      <c r="A30" s="43"/>
       <c r="B30" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F30" s="1">
         <v>1</v>
       </c>
       <c r="G30" s="15">
-        <v>45931</v>
+        <v>45925</v>
       </c>
       <c r="H30" s="15">
-        <v>45932</v>
+        <v>45930</v>
       </c>
       <c r="I30" s="14"/>
       <c r="J30" s="16"/>
@@ -3443,14 +3448,14 @@
       <c r="AD30" s="14"/>
       <c r="AE30" s="14"/>
       <c r="AF30" s="14"/>
-      <c r="AG30" s="14"/>
-      <c r="AH30" s="14"/>
+      <c r="AG30" s="25"/>
+      <c r="AH30" s="25"/>
       <c r="AI30" s="17"/>
       <c r="AJ30" s="17"/>
-      <c r="AK30" s="14"/>
-      <c r="AL30" s="14"/>
-      <c r="AM30" s="25"/>
-      <c r="AN30" s="25"/>
+      <c r="AK30" s="25"/>
+      <c r="AL30" s="25"/>
+      <c r="AM30" s="16"/>
+      <c r="AN30" s="16"/>
       <c r="AO30" s="17"/>
       <c r="AP30" s="17"/>
       <c r="AQ30" s="17"/>
@@ -3473,29 +3478,29 @@
       <c r="BH30" s="14"/>
     </row>
     <row r="31" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A31" s="37" t="s">
-        <v>66</v>
+      <c r="A31" s="41" t="s">
+        <v>24</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="F31" s="1">
         <v>1</v>
       </c>
       <c r="G31" s="15">
-        <v>45943</v>
+        <v>45930</v>
       </c>
       <c r="H31" s="15">
-        <v>45950</v>
+        <v>45931</v>
       </c>
       <c r="I31" s="14"/>
       <c r="J31" s="16"/>
@@ -3525,10 +3530,10 @@
       <c r="AH31" s="14"/>
       <c r="AI31" s="17"/>
       <c r="AJ31" s="17"/>
-      <c r="AK31" s="16"/>
-      <c r="AL31" s="16"/>
-      <c r="AM31" s="16"/>
-      <c r="AN31" s="16"/>
+      <c r="AK31" s="14"/>
+      <c r="AL31" s="25"/>
+      <c r="AM31" s="25"/>
+      <c r="AN31" s="14"/>
       <c r="AO31" s="17"/>
       <c r="AP31" s="17"/>
       <c r="AQ31" s="17"/>
@@ -3539,39 +3544,39 @@
       <c r="AV31" s="17"/>
       <c r="AW31" s="17"/>
       <c r="AX31" s="17"/>
-      <c r="AY31" s="34"/>
-      <c r="AZ31" s="34"/>
-      <c r="BA31" s="34"/>
-      <c r="BB31" s="34"/>
-      <c r="BC31" s="34"/>
+      <c r="AY31" s="14"/>
+      <c r="AZ31" s="14"/>
+      <c r="BA31" s="14"/>
+      <c r="BB31" s="14"/>
+      <c r="BC31" s="14"/>
       <c r="BD31" s="17"/>
       <c r="BE31" s="17"/>
-      <c r="BF31" s="25"/>
+      <c r="BF31" s="14"/>
       <c r="BG31" s="14"/>
       <c r="BH31" s="14"/>
     </row>
     <row r="32" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A32" s="39"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="1" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="F32" s="1">
         <v>1</v>
       </c>
       <c r="G32" s="15">
-        <v>45950</v>
+        <v>45931</v>
       </c>
       <c r="H32" s="15">
-        <v>45952</v>
+        <v>45932</v>
       </c>
       <c r="I32" s="14"/>
       <c r="J32" s="16"/>
@@ -3601,10 +3606,10 @@
       <c r="AH32" s="14"/>
       <c r="AI32" s="17"/>
       <c r="AJ32" s="17"/>
-      <c r="AK32" s="16"/>
-      <c r="AL32" s="16"/>
-      <c r="AM32" s="16"/>
-      <c r="AN32" s="16"/>
+      <c r="AK32" s="14"/>
+      <c r="AL32" s="14"/>
+      <c r="AM32" s="25"/>
+      <c r="AN32" s="25"/>
       <c r="AO32" s="17"/>
       <c r="AP32" s="17"/>
       <c r="AQ32" s="17"/>
@@ -3622,21 +3627,170 @@
       <c r="BC32" s="14"/>
       <c r="BD32" s="17"/>
       <c r="BE32" s="17"/>
-      <c r="BF32" s="25"/>
-      <c r="BG32" s="25"/>
-      <c r="BH32" s="25"/>
+      <c r="BF32" s="14"/>
+      <c r="BG32" s="14"/>
+      <c r="BH32" s="14"/>
+    </row>
+    <row r="33" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A33" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="15">
+        <v>45943</v>
+      </c>
+      <c r="H33" s="15">
+        <v>45950</v>
+      </c>
+      <c r="I33" s="14"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="17"/>
+      <c r="W33" s="14"/>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="14"/>
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="17"/>
+      <c r="AC33" s="17"/>
+      <c r="AD33" s="14"/>
+      <c r="AE33" s="14"/>
+      <c r="AF33" s="14"/>
+      <c r="AG33" s="14"/>
+      <c r="AH33" s="14"/>
+      <c r="AI33" s="17"/>
+      <c r="AJ33" s="17"/>
+      <c r="AK33" s="16"/>
+      <c r="AL33" s="16"/>
+      <c r="AM33" s="16"/>
+      <c r="AN33" s="16"/>
+      <c r="AO33" s="17"/>
+      <c r="AP33" s="17"/>
+      <c r="AQ33" s="17"/>
+      <c r="AR33" s="17"/>
+      <c r="AS33" s="17"/>
+      <c r="AT33" s="17"/>
+      <c r="AU33" s="17"/>
+      <c r="AV33" s="17"/>
+      <c r="AW33" s="17"/>
+      <c r="AX33" s="17"/>
+      <c r="AY33" s="34"/>
+      <c r="AZ33" s="34"/>
+      <c r="BA33" s="34"/>
+      <c r="BB33" s="34"/>
+      <c r="BC33" s="34"/>
+      <c r="BD33" s="17"/>
+      <c r="BE33" s="17"/>
+      <c r="BF33" s="25"/>
+      <c r="BG33" s="14"/>
+      <c r="BH33" s="14"/>
+    </row>
+    <row r="34" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A34" s="43"/>
+      <c r="B34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="15">
+        <v>45950</v>
+      </c>
+      <c r="H34" s="15">
+        <v>45952</v>
+      </c>
+      <c r="I34" s="14"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17"/>
+      <c r="W34" s="14"/>
+      <c r="X34" s="14"/>
+      <c r="Y34" s="14"/>
+      <c r="Z34" s="14"/>
+      <c r="AA34" s="14"/>
+      <c r="AB34" s="17"/>
+      <c r="AC34" s="17"/>
+      <c r="AD34" s="14"/>
+      <c r="AE34" s="14"/>
+      <c r="AF34" s="14"/>
+      <c r="AG34" s="14"/>
+      <c r="AH34" s="14"/>
+      <c r="AI34" s="17"/>
+      <c r="AJ34" s="17"/>
+      <c r="AK34" s="16"/>
+      <c r="AL34" s="16"/>
+      <c r="AM34" s="16"/>
+      <c r="AN34" s="16"/>
+      <c r="AO34" s="17"/>
+      <c r="AP34" s="17"/>
+      <c r="AQ34" s="17"/>
+      <c r="AR34" s="17"/>
+      <c r="AS34" s="17"/>
+      <c r="AT34" s="17"/>
+      <c r="AU34" s="17"/>
+      <c r="AV34" s="17"/>
+      <c r="AW34" s="17"/>
+      <c r="AX34" s="17"/>
+      <c r="AY34" s="14"/>
+      <c r="AZ34" s="14"/>
+      <c r="BA34" s="14"/>
+      <c r="BB34" s="14"/>
+      <c r="BC34" s="14"/>
+      <c r="BD34" s="17"/>
+      <c r="BE34" s="17"/>
+      <c r="BF34" s="25"/>
+      <c r="BG34" s="25"/>
+      <c r="BH34" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="I9:N9"/>
-    <mergeCell ref="P9:V9"/>
-    <mergeCell ref="W9:AC9"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A20:A30"/>
+    <mergeCell ref="B21:B28"/>
     <mergeCell ref="AY8:BE8"/>
     <mergeCell ref="AY9:BE9"/>
     <mergeCell ref="BF8:BH8"/>
@@ -3653,12 +3807,17 @@
     <mergeCell ref="I8:N8"/>
     <mergeCell ref="P8:V8"/>
     <mergeCell ref="W8:AC8"/>
+    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="P9:V9"/>
+    <mergeCell ref="W9:AC9"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A19"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A20:A28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/산출물/메인프로젝트_1팀_WBS_v1.1.xlsx
+++ b/산출물/메인프로젝트_1팀_WBS_v1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3CLASS0_007\Desktop\project\GlobalMainProject\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC5A5E5-B7EE-4484-AD44-28ACD3ED4851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D6C7DE-1301-40C7-9E45-04A995DAAE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2911056D-CEA2-4BD9-AA47-60248FB27749}"/>
   </bookViews>
@@ -374,7 +374,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ERP 메인 사이트 구현
+    <t>ERP 메인 페이지 구현
 (매출 현황, 비용 현황, 재고 현황, 
 생산 현황, 인사/급여 현황, 알림 영역)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -801,6 +801,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="9" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -810,15 +828,6 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -828,18 +837,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -850,6 +847,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1168,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE02C2D2-1E5C-4A08-8A7B-F42FA2D4C018}">
   <dimension ref="A1:BH34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1632,182 +1632,182 @@
       <c r="BH7" s="22"/>
     </row>
     <row r="8" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="51" t="s">
+      <c r="G8" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="52"/>
-      <c r="I8" s="48" t="s">
+      <c r="H8" s="51"/>
+      <c r="I8" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
       <c r="O8" s="10"/>
-      <c r="P8" s="48" t="s">
+      <c r="P8" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="49"/>
-      <c r="V8" s="50"/>
-      <c r="W8" s="48" t="s">
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="X8" s="49"/>
-      <c r="Y8" s="49"/>
-      <c r="Z8" s="49"/>
-      <c r="AA8" s="49"/>
-      <c r="AB8" s="49"/>
-      <c r="AC8" s="50"/>
-      <c r="AD8" s="48" t="s">
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
+      <c r="AA8" s="42"/>
+      <c r="AB8" s="42"/>
+      <c r="AC8" s="43"/>
+      <c r="AD8" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="AE8" s="49"/>
-      <c r="AF8" s="49"/>
-      <c r="AG8" s="49"/>
-      <c r="AH8" s="49"/>
-      <c r="AI8" s="49"/>
-      <c r="AJ8" s="50"/>
-      <c r="AK8" s="48" t="s">
+      <c r="AE8" s="42"/>
+      <c r="AF8" s="42"/>
+      <c r="AG8" s="42"/>
+      <c r="AH8" s="42"/>
+      <c r="AI8" s="42"/>
+      <c r="AJ8" s="43"/>
+      <c r="AK8" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="AL8" s="49"/>
-      <c r="AM8" s="49"/>
-      <c r="AN8" s="49"/>
-      <c r="AO8" s="49"/>
-      <c r="AP8" s="49"/>
-      <c r="AQ8" s="50"/>
-      <c r="AR8" s="48" t="s">
+      <c r="AL8" s="42"/>
+      <c r="AM8" s="42"/>
+      <c r="AN8" s="42"/>
+      <c r="AO8" s="42"/>
+      <c r="AP8" s="42"/>
+      <c r="AQ8" s="43"/>
+      <c r="AR8" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="AS8" s="49"/>
-      <c r="AT8" s="49"/>
-      <c r="AU8" s="49"/>
-      <c r="AV8" s="49"/>
-      <c r="AW8" s="49"/>
-      <c r="AX8" s="50"/>
-      <c r="AY8" s="48" t="s">
+      <c r="AS8" s="42"/>
+      <c r="AT8" s="42"/>
+      <c r="AU8" s="42"/>
+      <c r="AV8" s="42"/>
+      <c r="AW8" s="42"/>
+      <c r="AX8" s="43"/>
+      <c r="AY8" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="AZ8" s="49"/>
-      <c r="BA8" s="49"/>
-      <c r="BB8" s="49"/>
-      <c r="BC8" s="49"/>
-      <c r="BD8" s="49"/>
-      <c r="BE8" s="50"/>
-      <c r="BF8" s="48" t="s">
+      <c r="AZ8" s="42"/>
+      <c r="BA8" s="42"/>
+      <c r="BB8" s="42"/>
+      <c r="BC8" s="42"/>
+      <c r="BD8" s="42"/>
+      <c r="BE8" s="43"/>
+      <c r="BF8" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="BG8" s="49"/>
-      <c r="BH8" s="49"/>
+      <c r="BG8" s="42"/>
+      <c r="BH8" s="42"/>
     </row>
     <row r="9" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A9" s="45"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="38">
+      <c r="A9" s="48"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="44">
         <v>45901</v>
       </c>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
       <c r="O9" s="11"/>
-      <c r="P9" s="38">
+      <c r="P9" s="44">
         <v>45908</v>
       </c>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="38">
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="44">
         <v>45915</v>
       </c>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="39"/>
-      <c r="Z9" s="39"/>
-      <c r="AA9" s="39"/>
-      <c r="AB9" s="39"/>
-      <c r="AC9" s="40"/>
-      <c r="AD9" s="38">
+      <c r="X9" s="45"/>
+      <c r="Y9" s="45"/>
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="46"/>
+      <c r="AD9" s="44">
         <v>45922</v>
       </c>
-      <c r="AE9" s="39"/>
-      <c r="AF9" s="39"/>
-      <c r="AG9" s="39"/>
-      <c r="AH9" s="39"/>
-      <c r="AI9" s="39"/>
-      <c r="AJ9" s="40"/>
-      <c r="AK9" s="38">
+      <c r="AE9" s="45"/>
+      <c r="AF9" s="45"/>
+      <c r="AG9" s="45"/>
+      <c r="AH9" s="45"/>
+      <c r="AI9" s="45"/>
+      <c r="AJ9" s="46"/>
+      <c r="AK9" s="44">
         <v>45929</v>
       </c>
-      <c r="AL9" s="39"/>
-      <c r="AM9" s="39"/>
-      <c r="AN9" s="39"/>
-      <c r="AO9" s="39"/>
-      <c r="AP9" s="39"/>
-      <c r="AQ9" s="40"/>
-      <c r="AR9" s="38">
+      <c r="AL9" s="45"/>
+      <c r="AM9" s="45"/>
+      <c r="AN9" s="45"/>
+      <c r="AO9" s="45"/>
+      <c r="AP9" s="45"/>
+      <c r="AQ9" s="46"/>
+      <c r="AR9" s="44">
         <v>45936</v>
       </c>
-      <c r="AS9" s="39"/>
-      <c r="AT9" s="39"/>
-      <c r="AU9" s="39"/>
-      <c r="AV9" s="39"/>
-      <c r="AW9" s="39"/>
-      <c r="AX9" s="40"/>
-      <c r="AY9" s="38">
+      <c r="AS9" s="45"/>
+      <c r="AT9" s="45"/>
+      <c r="AU9" s="45"/>
+      <c r="AV9" s="45"/>
+      <c r="AW9" s="45"/>
+      <c r="AX9" s="46"/>
+      <c r="AY9" s="44">
         <v>45943</v>
       </c>
-      <c r="AZ9" s="39"/>
-      <c r="BA9" s="39"/>
-      <c r="BB9" s="39"/>
-      <c r="BC9" s="39"/>
-      <c r="BD9" s="39"/>
-      <c r="BE9" s="40"/>
-      <c r="BF9" s="38">
+      <c r="AZ9" s="45"/>
+      <c r="BA9" s="45"/>
+      <c r="BB9" s="45"/>
+      <c r="BC9" s="45"/>
+      <c r="BD9" s="45"/>
+      <c r="BE9" s="46"/>
+      <c r="BF9" s="44">
         <v>45950</v>
       </c>
-      <c r="BG9" s="39"/>
-      <c r="BH9" s="39"/>
+      <c r="BG9" s="45"/>
+      <c r="BH9" s="45"/>
     </row>
     <row r="10" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A10" s="46"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
       <c r="G10" s="9" t="s">
         <v>11</v>
       </c>
@@ -1972,7 +1972,7 @@
       </c>
     </row>
     <row r="11" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="38" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2050,7 +2050,7 @@
       <c r="BH11" s="14"/>
     </row>
     <row r="12" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A12" s="43"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="18" t="s">
         <v>17</v>
       </c>
@@ -2126,10 +2126,10 @@
       <c r="BH12" s="14"/>
     </row>
     <row r="13" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="38" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -2204,8 +2204,8 @@
       <c r="BH13" s="14"/>
     </row>
     <row r="14" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A14" s="42"/>
-      <c r="B14" s="43"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="1" t="s">
         <v>38</v>
       </c>
@@ -2278,8 +2278,8 @@
       <c r="BH14" s="14"/>
     </row>
     <row r="15" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A15" s="42"/>
-      <c r="B15" s="41" t="s">
+      <c r="A15" s="40"/>
+      <c r="B15" s="38" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="19" t="s">
@@ -2354,8 +2354,8 @@
       <c r="BH15" s="14"/>
     </row>
     <row r="16" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A16" s="42"/>
-      <c r="B16" s="42"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="1" t="s">
         <v>43</v>
       </c>
@@ -2428,8 +2428,8 @@
       <c r="BH16" s="14"/>
     </row>
     <row r="17" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A17" s="42"/>
-      <c r="B17" s="43"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="1" t="s">
         <v>44</v>
       </c>
@@ -2502,7 +2502,7 @@
       <c r="BH17" s="14"/>
     </row>
     <row r="18" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A18" s="42"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="1" t="s">
         <v>32</v>
       </c>
@@ -2578,7 +2578,7 @@
       <c r="BH18" s="14"/>
     </row>
     <row r="19" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A19" s="43"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="1" t="s">
         <v>27</v>
       </c>
@@ -2654,7 +2654,7 @@
       <c r="BH19" s="14"/>
     </row>
     <row r="20" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="40" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2732,8 +2732,8 @@
       <c r="BH20" s="14"/>
     </row>
     <row r="21" spans="1:60" ht="33" x14ac:dyDescent="0.3">
-      <c r="A21" s="42"/>
-      <c r="B21" s="41" t="s">
+      <c r="A21" s="40"/>
+      <c r="B21" s="38" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="37" t="s">
@@ -2808,8 +2808,8 @@
       <c r="BH21" s="14"/>
     </row>
     <row r="22" spans="1:60" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="42"/>
-      <c r="B22" s="42"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="37" t="s">
         <v>83</v>
       </c>
@@ -2882,8 +2882,8 @@
       <c r="BH22" s="14"/>
     </row>
     <row r="23" spans="1:60" ht="33" x14ac:dyDescent="0.3">
-      <c r="A23" s="42"/>
-      <c r="B23" s="42"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
       <c r="C23" s="37" t="s">
         <v>76</v>
       </c>
@@ -2956,8 +2956,8 @@
       <c r="BH23" s="14"/>
     </row>
     <row r="24" spans="1:60" ht="33" x14ac:dyDescent="0.3">
-      <c r="A24" s="42"/>
-      <c r="B24" s="42"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="37" t="s">
         <v>77</v>
       </c>
@@ -3030,8 +3030,8 @@
       <c r="BH24" s="14"/>
     </row>
     <row r="25" spans="1:60" ht="33" x14ac:dyDescent="0.3">
-      <c r="A25" s="42"/>
-      <c r="B25" s="42"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="37" t="s">
         <v>78</v>
       </c>
@@ -3104,8 +3104,8 @@
       <c r="BH25" s="14"/>
     </row>
     <row r="26" spans="1:60" ht="33" x14ac:dyDescent="0.3">
-      <c r="A26" s="42"/>
-      <c r="B26" s="42"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="37" t="s">
         <v>79</v>
       </c>
@@ -3178,8 +3178,8 @@
       <c r="BH26" s="14"/>
     </row>
     <row r="27" spans="1:60" ht="33" x14ac:dyDescent="0.3">
-      <c r="A27" s="42"/>
-      <c r="B27" s="42"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="40"/>
       <c r="C27" s="37" t="s">
         <v>80</v>
       </c>
@@ -3252,8 +3252,8 @@
       <c r="BH27" s="14"/>
     </row>
     <row r="28" spans="1:60" ht="33" x14ac:dyDescent="0.3">
-      <c r="A28" s="42"/>
-      <c r="B28" s="43"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="39"/>
       <c r="C28" s="37" t="s">
         <v>81</v>
       </c>
@@ -3326,7 +3326,7 @@
       <c r="BH28" s="14"/>
     </row>
     <row r="29" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A29" s="42"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="1" t="s">
         <v>32</v>
       </c>
@@ -3402,7 +3402,7 @@
       <c r="BH29" s="14"/>
     </row>
     <row r="30" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A30" s="43"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="1" t="s">
         <v>27</v>
       </c>
@@ -3478,7 +3478,7 @@
       <c r="BH30" s="14"/>
     </row>
     <row r="31" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="38" t="s">
         <v>24</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -3556,7 +3556,7 @@
       <c r="BH31" s="14"/>
     </row>
     <row r="32" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A32" s="43"/>
+      <c r="A32" s="39"/>
       <c r="B32" s="1" t="s">
         <v>33</v>
       </c>
@@ -3632,7 +3632,7 @@
       <c r="BH32" s="14"/>
     </row>
     <row r="33" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="38" t="s">
         <v>66</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -3710,7 +3710,7 @@
       <c r="BH33" s="14"/>
     </row>
     <row r="34" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A34" s="43"/>
+      <c r="A34" s="39"/>
       <c r="B34" s="1" t="s">
         <v>68</v>
       </c>
@@ -3787,12 +3787,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A20:A30"/>
-    <mergeCell ref="B21:B28"/>
-    <mergeCell ref="AY8:BE8"/>
-    <mergeCell ref="AY9:BE9"/>
     <mergeCell ref="BF8:BH8"/>
     <mergeCell ref="BF9:BH9"/>
     <mergeCell ref="E8:E10"/>
@@ -3809,6 +3803,12 @@
     <mergeCell ref="W8:AC8"/>
     <mergeCell ref="I9:N9"/>
     <mergeCell ref="P9:V9"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A20:A30"/>
+    <mergeCell ref="B21:B28"/>
+    <mergeCell ref="AY8:BE8"/>
+    <mergeCell ref="AY9:BE9"/>
     <mergeCell ref="W9:AC9"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:B10"/>
